--- a/testing_results/results_tai30x15.xlsx
+++ b/testing_results/results_tai30x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1645557682740784</v>
+        <v>0.1596890207689615</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1622204555196857</v>
+        <v>0.161590569497767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1589292720095404</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1568487422252635</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1645760503099285</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1690424705375279</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1653628238657094</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1765310825500113</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1564660345231068</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1884828923901734</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1719708012417353</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1805927751187718</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.161590569497767</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.1501581980476329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1443907925471959</v>
+        <v>0.140663121104825</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1427099761532113</v>
+        <v>0.142016308573108</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1405926826418202</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1449443365416974</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1399869919372236</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1484305107563618</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1481840417339717</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1616591913200151</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1396495167140974</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1748083806427754</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1544466297576262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1601095276978572</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.142016308573108</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.1224445226875083</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1300096796852007</v>
+        <v>0.1237588669737732</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1256010006060088</v>
+        <v>0.1223589494365398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1250026516202606</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1290205955916239</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1208552076878032</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1314461020630236</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1314438746238755</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1428240914846472</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1237292154950871</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1540305450192298</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1402413497063863</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1452403867791711</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1223589494365398</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.1304468855376184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.1022863343268365</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09263615744478584</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1250415936372814</v>
       </c>
     </row>
   </sheetData>
